--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Efnb2-Ephb3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H2">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J2">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N2">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O2">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P2">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q2">
-        <v>13.68670785816478</v>
+        <v>4.71373245819</v>
       </c>
       <c r="R2">
-        <v>123.180370723483</v>
+        <v>42.42359212371</v>
       </c>
       <c r="S2">
-        <v>0.009673728282421957</v>
+        <v>0.003166082124029048</v>
       </c>
       <c r="T2">
-        <v>0.009673728282421955</v>
+        <v>0.003166082124029048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H3">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J3">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N3">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O3">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P3">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q3">
-        <v>953.5629761673845</v>
+        <v>829.3481361551421</v>
       </c>
       <c r="R3">
-        <v>8582.06678550646</v>
+        <v>7464.13322539628</v>
       </c>
       <c r="S3">
-        <v>0.6739757454615368</v>
+        <v>0.5570499241880742</v>
       </c>
       <c r="T3">
-        <v>0.6739757454615367</v>
+        <v>0.5570499241880743</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H4">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J4">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N4">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O4">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P4">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q4">
-        <v>116.4847892732075</v>
+        <v>172.1521326846965</v>
       </c>
       <c r="R4">
-        <v>1048.363103458867</v>
+        <v>1549.369194162268</v>
       </c>
       <c r="S4">
-        <v>0.08233113559094295</v>
+        <v>0.1156297678625112</v>
       </c>
       <c r="T4">
-        <v>0.08233113559094295</v>
+        <v>0.1156297678625112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.61615766666667</v>
+        <v>45.76217133333333</v>
       </c>
       <c r="H5">
-        <v>157.848473</v>
+        <v>137.286514</v>
       </c>
       <c r="I5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605134</v>
       </c>
       <c r="J5">
-        <v>0.7671520491359202</v>
+        <v>0.6763939203605135</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N5">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O5">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P5">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q5">
-        <v>1.657391427780778</v>
+        <v>0.8160920554444444</v>
       </c>
       <c r="R5">
-        <v>14.916522850027</v>
+        <v>7.344828499</v>
       </c>
       <c r="S5">
-        <v>0.00117143980101848</v>
+        <v>0.0005481461858989177</v>
       </c>
       <c r="T5">
-        <v>0.00117143980101848</v>
+        <v>0.0005481461858989177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>28.187806</v>
       </c>
       <c r="I6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J6">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N6">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O6">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P6">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q6">
-        <v>2.444105150669555</v>
+        <v>0.9678283190099999</v>
       </c>
       <c r="R6">
-        <v>21.996946356026</v>
+        <v>8.710454871089999</v>
       </c>
       <c r="S6">
-        <v>0.001727486943263767</v>
+        <v>0.0006500631860475291</v>
       </c>
       <c r="T6">
-        <v>0.001727486943263767</v>
+        <v>0.0006500631860475291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>28.187806</v>
       </c>
       <c r="I7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J7">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,13 +868,13 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N7">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O7">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P7">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q7">
         <v>170.2825986855688</v>
@@ -883,10 +883,10 @@
         <v>1532.54338817012</v>
       </c>
       <c r="S7">
-        <v>0.120355282510558</v>
+        <v>0.114374054215756</v>
       </c>
       <c r="T7">
-        <v>0.1203552825105579</v>
+        <v>0.114374054215756</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>28.187806</v>
       </c>
       <c r="I8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J8">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N8">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O8">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P8">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q8">
-        <v>20.80128226507489</v>
+        <v>35.34645011528578</v>
       </c>
       <c r="R8">
-        <v>187.211540385674</v>
+        <v>318.118051037572</v>
       </c>
       <c r="S8">
-        <v>0.01470229032749145</v>
+        <v>0.0237412209645989</v>
       </c>
       <c r="T8">
-        <v>0.01470229032749145</v>
+        <v>0.02374122096459891</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>28.187806</v>
       </c>
       <c r="I9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="J9">
-        <v>0.1369942497546098</v>
+        <v>0.1388778842960613</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N9">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O9">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P9">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q9">
-        <v>0.2959688310215555</v>
+        <v>0.1675608467777777</v>
       </c>
       <c r="R9">
-        <v>2.663719479194</v>
+        <v>1.508047621</v>
       </c>
       <c r="S9">
-        <v>0.0002091899732966535</v>
+        <v>0.000112545929658893</v>
       </c>
       <c r="T9">
-        <v>0.0002091899732966534</v>
+        <v>0.000112545929658893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H10">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J10">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N10">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O10">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P10">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q10">
-        <v>1.688890623765</v>
+        <v>1.26670488021</v>
       </c>
       <c r="R10">
-        <v>15.200015613885</v>
+        <v>11.40034392189</v>
       </c>
       <c r="S10">
-        <v>0.001193703347973955</v>
+        <v>0.0008508102046999086</v>
       </c>
       <c r="T10">
-        <v>0.001193703347973955</v>
+        <v>0.0008508102046999085</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H11">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J11">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N11">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O11">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P11">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q11">
-        <v>117.6662486193</v>
+        <v>222.8678315493911</v>
       </c>
       <c r="R11">
-        <v>1058.9962375737</v>
+        <v>2005.81048394452</v>
       </c>
       <c r="S11">
-        <v>0.08316618787738517</v>
+        <v>0.1496940829265033</v>
       </c>
       <c r="T11">
-        <v>0.08316618787738515</v>
+        <v>0.1496940829265033</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H12">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J12">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N12">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O12">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P12">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q12">
-        <v>14.373804895485</v>
+        <v>46.26184208469023</v>
       </c>
       <c r="R12">
-        <v>129.364244059365</v>
+        <v>416.3565787622121</v>
       </c>
       <c r="S12">
-        <v>0.0101593666193817</v>
+        <v>0.03107278415738389</v>
       </c>
       <c r="T12">
-        <v>0.0101593666193817</v>
+        <v>0.03107278415738388</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.492645</v>
+        <v>12.29750866666667</v>
       </c>
       <c r="H13">
-        <v>19.477935</v>
+        <v>36.892526</v>
       </c>
       <c r="I13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="J13">
-        <v>0.09466380931151776</v>
+        <v>0.1817649787009828</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N13">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O13">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P13">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q13">
-        <v>0.204516153285</v>
+        <v>0.2193055712222222</v>
       </c>
       <c r="R13">
-        <v>1.840645379565</v>
+        <v>1.973750141</v>
       </c>
       <c r="S13">
-        <v>0.0001445514667769443</v>
+        <v>0.0001473014123956608</v>
       </c>
       <c r="T13">
-        <v>0.0001445514667769443</v>
+        <v>0.0001473014123956607</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H14">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I14">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J14">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1299,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2601236666666666</v>
+        <v>0.103005</v>
       </c>
       <c r="N14">
-        <v>0.7803709999999999</v>
+        <v>0.309015</v>
       </c>
       <c r="O14">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734043</v>
       </c>
       <c r="P14">
-        <v>0.01260992301763117</v>
+        <v>0.004680825815734042</v>
       </c>
       <c r="Q14">
-        <v>0.02122877914455555</v>
+        <v>0.020650408065</v>
       </c>
       <c r="R14">
-        <v>0.1910590123009999</v>
+        <v>0.185853672585</v>
       </c>
       <c r="S14">
-        <v>1.500444397148935E-05</v>
+        <v>1.387030095755732E-05</v>
       </c>
       <c r="T14">
-        <v>1.500444397148935E-05</v>
+        <v>1.387030095755732E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H15">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I15">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J15">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>18.12300666666667</v>
       </c>
       <c r="N15">
-        <v>54.36901999999999</v>
+        <v>54.36902</v>
       </c>
       <c r="O15">
-        <v>0.8785425864672691</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="P15">
-        <v>0.878542586467269</v>
+        <v>0.8235584434158876</v>
       </c>
       <c r="Q15">
-        <v>1.479024615068889</v>
+        <v>3.63329433553111</v>
       </c>
       <c r="R15">
-        <v>13.31122153562</v>
+        <v>32.69964901978</v>
       </c>
       <c r="S15">
-        <v>0.00104537061778921</v>
+        <v>0.002440382085553947</v>
       </c>
       <c r="T15">
-        <v>0.00104537061778921</v>
+        <v>0.002440382085553947</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H16">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I16">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J16">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.213859666666667</v>
+        <v>3.761887333333334</v>
       </c>
       <c r="N16">
-        <v>6.641579</v>
+        <v>11.285662</v>
       </c>
       <c r="O16">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="P16">
-        <v>0.1073204923113696</v>
+        <v>0.1709503358647596</v>
       </c>
       <c r="Q16">
-        <v>0.1806738253498889</v>
+        <v>0.7541819186242221</v>
       </c>
       <c r="R16">
-        <v>1.626064428149</v>
+        <v>6.787637267618</v>
       </c>
       <c r="S16">
-        <v>0.0001276997735535025</v>
+        <v>0.0005065628802655802</v>
       </c>
       <c r="T16">
-        <v>0.0001276997735535024</v>
+        <v>0.0005065628802655802</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08161033333333333</v>
+        <v>0.2004796666666666</v>
       </c>
       <c r="H17">
-        <v>0.244831</v>
+        <v>0.6014389999999999</v>
       </c>
       <c r="I17">
-        <v>0.001189891797952309</v>
+        <v>0.002963216642442438</v>
       </c>
       <c r="J17">
-        <v>0.001189891797952308</v>
+        <v>0.002963216642442439</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.03149966666666667</v>
+        <v>0.01783333333333333</v>
       </c>
       <c r="N17">
-        <v>0.094499</v>
+        <v>0.0535</v>
       </c>
       <c r="O17">
-        <v>0.001526998203730185</v>
+        <v>0.0008103949036188254</v>
       </c>
       <c r="P17">
-        <v>0.001526998203730184</v>
+        <v>0.0008103949036188253</v>
       </c>
       <c r="Q17">
-        <v>0.002570698296555555</v>
+        <v>0.003575220722222222</v>
       </c>
       <c r="R17">
-        <v>0.023136284669</v>
+        <v>0.0321769865</v>
       </c>
       <c r="S17">
-        <v>1.816962638106455E-06</v>
+        <v>2.401375665353839E-06</v>
       </c>
       <c r="T17">
-        <v>1.816962638106454E-06</v>
+        <v>2.401375665353839E-06</v>
       </c>
     </row>
   </sheetData>
